--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>Datum</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Summe</t>
+  </si>
+  <si>
+    <t>Besprechnungsprotokolle vorbereitet, Handbuch</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -455,6 +458,12 @@
         <f t="shared" si="0"/>
         <v>42647</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -627,7 +636,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -54,6 +54,21 @@
   </si>
   <si>
     <t>Besprechnungsprotokolle vorbereitet, Handbuch</t>
+  </si>
+  <si>
+    <t>13:15 - 16:30, 17:00 - 19:30</t>
+  </si>
+  <si>
+    <t>Teammeeting, Fertigstellen von Präsi</t>
+  </si>
+  <si>
+    <t>19:00 - 20:00</t>
+  </si>
+  <si>
+    <t>17:00 - 21:00</t>
+  </si>
+  <si>
+    <t>21:00  - 24:00</t>
   </si>
 </sst>
 </file>
@@ -396,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,12 +423,12 @@
     <col min="3" max="3" width="63.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -424,12 +439,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42644</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f>A4+1</f>
         <v>42645</v>
@@ -440,8 +455,11 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" ref="A6:A34" si="0">A5+1</f>
         <v>42646</v>
@@ -452,8 +470,11 @@
       <c r="C6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>42647</v>
@@ -464,56 +485,68 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>42648</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5.75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>42649</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>42650</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>42651</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>42652</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>42653</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>42654</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>42655</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>42656</v>
@@ -636,7 +669,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>8</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>21:00  - 24:00</t>
+  </si>
+  <si>
+    <t>Diviserve discussion mit Team</t>
+  </si>
+  <si>
+    <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>Erstellung VM Image</t>
+  </si>
+  <si>
+    <t>21:00 - 22:15</t>
+  </si>
+  <si>
+    <t>Installation diverse Programme in Image</t>
+  </si>
+  <si>
+    <t>20:00 - 21:00</t>
+  </si>
+  <si>
+    <t>Teammeeting (13:30 - 15:00), Architektur (15:00 - 16:45), Admin - Tagebuch, Zeitblätter (18:30 - 19:15)</t>
   </si>
 </sst>
 </file>
@@ -414,7 +435,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,6 +530,15 @@
         <f t="shared" si="0"/>
         <v>42649</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -527,6 +557,15 @@
         <f t="shared" si="0"/>
         <v>42652</v>
       </c>
+      <c r="B12">
+        <v>1.25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -539,11 +578,26 @@
         <f t="shared" si="0"/>
         <v>42654</v>
       </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>42655</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -669,7 +723,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>13.75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Teammeeting (13:30 - 15:00), Architektur (15:00 - 16:45), Admin - Tagebuch, Zeitblätter (18:30 - 19:15)</t>
+  </si>
+  <si>
+    <t>Einlesen DMX Protokoll</t>
+  </si>
+  <si>
+    <t>Eclipse installation, UDP suche beispiele</t>
+  </si>
+  <si>
+    <t>20:00 - 20:30</t>
+  </si>
+  <si>
+    <t>14:00 - 14:30</t>
   </si>
 </sst>
 </file>
@@ -435,7 +447,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,97 +618,115 @@
         <v>42656</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>42657</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>42658</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>42659</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42661</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>42662</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42663</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>42664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>42665</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>42666</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42667</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>42668</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>42669</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>42670</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>42671</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>42672</v>
@@ -723,7 +753,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>14:00 - 14:30</t>
+  </si>
+  <si>
+    <t>14:00 - 15:30, 19:00 - 21:30</t>
+  </si>
+  <si>
+    <t>DMX Tests in FH, OpenDMX test, UDP funktioniert</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>08:00 - 08:30</t>
   </si>
 </sst>
 </file>
@@ -447,7 +459,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,11 +671,29 @@
         <f t="shared" si="0"/>
         <v>42660</v>
       </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>42661</v>
+      </c>
+      <c r="B21">
+        <v>0.5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -753,7 +783,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>22</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -110,10 +110,10 @@
     <t>DMX Tests in FH, OpenDMX test, UDP funktioniert</t>
   </si>
   <si>
-    <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>08:00 - 08:30</t>
+    <t>Dokumentation, Branch umstellen, ESP Funktionen für Poll und Data geschreiben</t>
+  </si>
+  <si>
+    <t>08:00 - 08:30, 14:00 - 15:00, 19:00 - 20:00, 21:00 - 22:15</t>
   </si>
 </sst>
 </file>
@@ -459,7 +459,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
         <v>42661</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>3.75</v>
       </c>
       <c r="C21" t="s">
         <v>26</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>26.5</v>
+        <v>29.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28260" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Oktober" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -114,6 +114,12 @@
   </si>
   <si>
     <t>08:00 - 08:30, 14:00 - 15:00, 19:00 - 20:00, 21:00 - 22:15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMX Programmieren, </t>
+  </si>
+  <si>
+    <t>08:15 - 09:45, 13:00 -14:15</t>
   </si>
 </sst>
 </file>
@@ -701,6 +707,12 @@
         <f t="shared" si="0"/>
         <v>42662</v>
       </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Datum</t>
   </si>
@@ -116,10 +116,16 @@
     <t>08:00 - 08:30, 14:00 - 15:00, 19:00 - 20:00, 21:00 - 22:15</t>
   </si>
   <si>
-    <t xml:space="preserve">DMX Programmieren, </t>
-  </si>
-  <si>
-    <t>08:15 - 09:45, 13:00 -14:15</t>
+    <t>DMX Programmieren,  Teammeeting, AlienProtokoll, Dokumentation</t>
+  </si>
+  <si>
+    <t>08:15 - 09:45, 13:00 -14:30, 14:30 - 16:30, 16:30 - 17:30, 17:30 - 18:00</t>
+  </si>
+  <si>
+    <t>Doku auf Stand gebracht für Projektfreigabe</t>
+  </si>
+  <si>
+    <t>10:45 - 11:15</t>
   </si>
 </sst>
 </file>
@@ -464,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -707,6 +713,9 @@
         <f t="shared" si="0"/>
         <v>42662</v>
       </c>
+      <c r="B22">
+        <v>6.5</v>
+      </c>
       <c r="C22" t="s">
         <v>28</v>
       </c>
@@ -718,6 +727,15 @@
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>42663</v>
+      </c>
+      <c r="B23">
+        <v>0.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -795,7 +813,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>29.75</v>
+        <v>36.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>10:45 - 11:15</t>
+  </si>
+  <si>
+    <t>DMX und ESP ferigstellen</t>
+  </si>
+  <si>
+    <t>DMX und ESP weitere arbeit</t>
+  </si>
+  <si>
+    <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>14:00 - 16:00</t>
   </si>
 </sst>
 </file>
@@ -471,7 +483,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,11 +767,29 @@
         <f t="shared" si="0"/>
         <v>42666</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>42667</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -813,7 +843,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>36.75</v>
+        <v>39.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">

--- a/Zeitblätter/Ursus Schneider.xlsx
+++ b/Zeitblätter/Ursus Schneider.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>14:00 - 16:00</t>
+  </si>
+  <si>
+    <t>Protokol visualisierung</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,6 +800,15 @@
         <f t="shared" si="0"/>
         <v>42668</v>
       </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
@@ -843,7 +855,7 @@
       </c>
       <c r="B36" s="2">
         <f>SUM(B5:B34)</f>
-        <v>39.75</v>
+        <v>41.75</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
